--- a/extra/word_vector/word_vector_topic_v2.xlsx
+++ b/extra/word_vector/word_vector_topic_v2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tesum\workspace\GYH\extra\word_vector\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4A9275F-F7B5-4303-B0D2-13295F43318F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C263F28B-9156-43A1-B343-F6EE9B7BD6FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{DDDD6021-F3D3-418B-97EC-54D3336C6369}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="384" uniqueCount="176">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="466" uniqueCount="251">
   <si>
     <t>旅行</t>
   </si>
@@ -794,13 +794,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>すずめの戸締り</t>
-    <rPh sb="4" eb="6">
-      <t>トジマ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>リングフィットアドベンチャー</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -810,10 +803,6 @@
   </si>
   <si>
     <t>トップガン</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>スターウォーズ</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -874,13 +863,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>好きなジム</t>
-    <rPh sb="0" eb="1">
-      <t>ス</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>炭水化物</t>
     <rPh sb="0" eb="4">
       <t>タンスイカブツ</t>
@@ -936,6 +918,420 @@
     <rPh sb="0" eb="4">
       <t>カテイサイエン</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ハーブ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>イタリアン</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>和食</t>
+    <rPh sb="0" eb="2">
+      <t>ワショク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>中華</t>
+    <rPh sb="0" eb="2">
+      <t>チュウカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ブランド</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ファストファッション</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>登山</t>
+    <rPh sb="0" eb="2">
+      <t>トザン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>キャンプ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>グランピング</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>W杯</t>
+    <rPh sb="1" eb="2">
+      <t>ハイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>オリックス</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>C.ロナウド</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>クラシック</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>JPOP</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ミュージカル</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>洋楽</t>
+    <rPh sb="0" eb="2">
+      <t>ヨウガク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>新海誠</t>
+    <rPh sb="0" eb="3">
+      <t>シンカイマコト</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>セカイ系</t>
+    <rPh sb="3" eb="4">
+      <t>ケイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>スタジオジブリ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>YouTube</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>SNS</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>なろう系</t>
+    <rPh sb="3" eb="4">
+      <t>ケイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ラノベ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>鉄道</t>
+    <rPh sb="0" eb="2">
+      <t>テツドウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ガンダム</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>トレーディングカードゲーム</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>サーフィン</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>バーベキュー</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>東急ハンズ</t>
+    <rPh sb="0" eb="2">
+      <t>トウキュウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ホームセンター</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>100均</t>
+    <rPh sb="3" eb="4">
+      <t>キン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>日曜大工</t>
+    <rPh sb="0" eb="4">
+      <t>ニチヨウダイク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ダウンタウン</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>サンドウィッチマン</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>千鳥</t>
+    <rPh sb="0" eb="2">
+      <t>チドリ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>オードリー</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>陣内智則</t>
+    <rPh sb="0" eb="4">
+      <t>ジンナイトモノリ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>バカリズム</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ひろゆき</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>YouTuber</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Vtuber</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>メッシ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>カマキリ先生</t>
+    <rPh sb="4" eb="6">
+      <t>センセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>松下幸之助</t>
+    <rPh sb="0" eb="5">
+      <t>マツシタコウノスケ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Google</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Microsoft</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>イーロン マスク</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>スティーブ ジョブズ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>お宝探偵団</t>
+    <rPh sb="1" eb="5">
+      <t>タカラタンテイダン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>曜変天目茶碗</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>日本刀</t>
+    <rPh sb="0" eb="3">
+      <t>ニホントウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ゼクシィ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>洋装or和装</t>
+    <rPh sb="0" eb="2">
+      <t>ヨウソウ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ワソウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>新婚旅行</t>
+    <rPh sb="0" eb="4">
+      <t>シンコンリョコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>日本酒</t>
+    <rPh sb="0" eb="3">
+      <t>ニホンシュ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ウィスキー</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ビール</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>イオン</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>白川郷</t>
+    <rPh sb="0" eb="3">
+      <t>シラカワゴウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>大垣城</t>
+    <rPh sb="0" eb="3">
+      <t>オオガキジョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>下呂温泉</t>
+    <rPh sb="0" eb="4">
+      <t>ゲロオンセン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>養老の滝</t>
+    <rPh sb="0" eb="2">
+      <t>ヨウロウ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>タキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>キングダム</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>進撃の巨人</t>
+    <rPh sb="0" eb="2">
+      <t>シンゲキ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>キョジン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>スパイファミリー</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>彗星の魔女</t>
+    <rPh sb="0" eb="2">
+      <t>スイセイ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>マジョ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>チェンソーマン</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ゴールデンカムイ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ハンターハンター</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ジョジョ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アニメ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>うる星やつら</t>
+    <rPh sb="2" eb="3">
+      <t>セイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>異世界おじさん</t>
+    <rPh sb="0" eb="3">
+      <t>イセカイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>名探偵コナン</t>
+    <rPh sb="0" eb="3">
+      <t>メイタンテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ポケモン</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>スプラトゥーン</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>エルデンリング</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>PS5</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -943,7 +1339,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="13" x14ac:knownFonts="1">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1048,6 +1444,15 @@
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF0070C0"/>
+      <name val="游ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -1071,7 +1476,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1106,6 +1511,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1422,10 +1830,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{11C86C65-94A2-4A64-91A0-FA283439FFA8}">
-  <dimension ref="A1:J112"/>
+  <dimension ref="A1:K114"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="99" workbookViewId="0">
-      <selection activeCell="H21" sqref="H21"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -1434,6 +1842,7 @@
     <col min="2" max="2" width="17" customWidth="1"/>
     <col min="3" max="5" width="16.296875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="10.3984375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.5" bestFit="1" customWidth="1"/>
     <col min="8" max="9" width="14.296875" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="14.5" bestFit="1" customWidth="1"/>
   </cols>
@@ -1451,6 +1860,18 @@
       <c r="D1" t="s">
         <v>5</v>
       </c>
+      <c r="E1" s="10" t="s">
+        <v>183</v>
+      </c>
+      <c r="F1" s="10" t="s">
+        <v>182</v>
+      </c>
+      <c r="G1" s="11" t="s">
+        <v>184</v>
+      </c>
+      <c r="H1" s="11" t="s">
+        <v>214</v>
+      </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A2" s="1" t="s">
@@ -1466,10 +1887,7 @@
         <v>34</v>
       </c>
       <c r="E2" s="10" t="s">
-        <v>165</v>
-      </c>
-      <c r="F2" s="10" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.45">
@@ -1495,13 +1913,13 @@
         <v>149</v>
       </c>
       <c r="H3" s="11" t="s">
-        <v>151</v>
+        <v>189</v>
       </c>
       <c r="I3" s="10" t="s">
-        <v>154</v>
+        <v>191</v>
       </c>
       <c r="J3" s="10" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.45">
@@ -1535,16 +1953,16 @@
         <v>96</v>
       </c>
       <c r="F5" s="10" t="s">
+        <v>154</v>
+      </c>
+      <c r="G5" s="10" t="s">
+        <v>155</v>
+      </c>
+      <c r="H5" s="10" t="s">
+        <v>157</v>
+      </c>
+      <c r="I5" s="10" t="s">
         <v>156</v>
-      </c>
-      <c r="G5" s="10" t="s">
-        <v>157</v>
-      </c>
-      <c r="H5" s="10" t="s">
-        <v>159</v>
-      </c>
-      <c r="I5" s="10" t="s">
-        <v>158</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.45">
@@ -1558,13 +1976,13 @@
         <v>11</v>
       </c>
       <c r="D6" s="10" t="s">
+        <v>158</v>
+      </c>
+      <c r="E6" s="10" t="s">
+        <v>159</v>
+      </c>
+      <c r="F6" s="10" t="s">
         <v>160</v>
-      </c>
-      <c r="E6" s="10" t="s">
-        <v>161</v>
-      </c>
-      <c r="F6" s="10" t="s">
-        <v>162</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.45">
@@ -1658,13 +2076,13 @@
         <v>49</v>
       </c>
       <c r="F12" s="10" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="G12" s="11" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="H12" s="10" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.45">
@@ -1684,10 +2102,10 @@
         <v>55</v>
       </c>
       <c r="F13" s="10" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="G13" s="10" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.45">
@@ -1704,16 +2122,16 @@
         <v>20</v>
       </c>
       <c r="E14" s="10" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="F14" s="11" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="G14" s="10" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="H14" s="11" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.45">
@@ -1792,13 +2210,13 @@
         <v>57</v>
       </c>
       <c r="D19" s="10" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="E19" s="11" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="F19" s="10" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.45">
@@ -1832,9 +2250,11 @@
         <v>31</v>
       </c>
       <c r="G21" s="10" t="s">
-        <v>175</v>
-      </c>
-      <c r="H21" s="10"/>
+        <v>172</v>
+      </c>
+      <c r="H21" s="10" t="s">
+        <v>173</v>
+      </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A22" s="1" t="s">
@@ -1849,6 +2269,15 @@
       <c r="D22" t="s">
         <v>111</v>
       </c>
+      <c r="E22" s="10" t="s">
+        <v>174</v>
+      </c>
+      <c r="F22" s="10" t="s">
+        <v>175</v>
+      </c>
+      <c r="G22" s="11" t="s">
+        <v>176</v>
+      </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A23" s="1" t="s">
@@ -1863,6 +2292,13 @@
       <c r="D23" t="s">
         <v>61</v>
       </c>
+      <c r="E23" s="10" t="s">
+        <v>177</v>
+      </c>
+      <c r="F23" s="11" t="s">
+        <v>178</v>
+      </c>
+      <c r="G23" s="10"/>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A24" s="1" t="s">
@@ -1874,8 +2310,21 @@
       <c r="C24" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="D24" s="2"/>
-      <c r="E24" s="2"/>
+      <c r="D24" s="10" t="s">
+        <v>180</v>
+      </c>
+      <c r="E24" s="10" t="s">
+        <v>181</v>
+      </c>
+      <c r="F24" s="10" t="s">
+        <v>179</v>
+      </c>
+      <c r="G24" s="10" t="s">
+        <v>199</v>
+      </c>
+      <c r="H24" s="10" t="s">
+        <v>200</v>
+      </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A25" s="7" t="s">
@@ -1979,8 +2428,9 @@
       <c r="B32" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="33" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="C32" s="10"/>
+    </row>
+    <row r="33" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A33" s="7" t="s">
         <v>59</v>
       </c>
@@ -2000,7 +2450,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A34" s="1" t="s">
         <v>60</v>
       </c>
@@ -2010,8 +2460,29 @@
       <c r="C34" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="D34" s="10" t="s">
+        <v>243</v>
+      </c>
+      <c r="E34" s="10" t="s">
+        <v>144</v>
+      </c>
+      <c r="F34" s="10" t="s">
+        <v>113</v>
+      </c>
+      <c r="G34" s="10" t="s">
+        <v>192</v>
+      </c>
+      <c r="H34" s="10" t="s">
+        <v>193</v>
+      </c>
+      <c r="I34" s="10" t="s">
+        <v>190</v>
+      </c>
+      <c r="J34" s="10" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A35" s="1" t="s">
         <v>64</v>
       </c>
@@ -2024,8 +2495,23 @@
       <c r="D35" s="2" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="E35" s="10" t="s">
+        <v>243</v>
+      </c>
+      <c r="F35" s="10" t="s">
+        <v>195</v>
+      </c>
+      <c r="G35" s="10" t="s">
+        <v>196</v>
+      </c>
+      <c r="H35" s="10" t="s">
+        <v>197</v>
+      </c>
+      <c r="I35" s="11" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A36" s="1" t="s">
         <v>67</v>
       </c>
@@ -2038,8 +2524,20 @@
       <c r="D36" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="E36" s="10" t="s">
+        <v>201</v>
+      </c>
+      <c r="F36" s="10" t="s">
+        <v>202</v>
+      </c>
+      <c r="G36" s="11" t="s">
+        <v>203</v>
+      </c>
+      <c r="H36" s="11" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A37" s="7" t="s">
         <v>65</v>
       </c>
@@ -2053,7 +2551,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A38" s="1" t="s">
         <v>61</v>
       </c>
@@ -2067,7 +2565,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A39" s="1" t="s">
         <v>93</v>
       </c>
@@ -2081,7 +2579,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A40" s="7" t="s">
         <v>134</v>
       </c>
@@ -2091,16 +2589,46 @@
       <c r="C40" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="D40" s="10" t="s">
+        <v>205</v>
+      </c>
+      <c r="E40" s="11" t="s">
+        <v>206</v>
+      </c>
+      <c r="F40" s="10" t="s">
+        <v>207</v>
+      </c>
+      <c r="G40" s="11" t="s">
+        <v>208</v>
+      </c>
+      <c r="H40" s="11" t="s">
+        <v>209</v>
+      </c>
+      <c r="I40" s="11" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A41" s="1" t="s">
         <v>94</v>
       </c>
       <c r="B41" t="s">
         <v>133</v>
       </c>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="C41" s="11" t="s">
+        <v>212</v>
+      </c>
+      <c r="D41" s="11" t="s">
+        <v>213</v>
+      </c>
+      <c r="E41" s="11" t="s">
+        <v>211</v>
+      </c>
+      <c r="F41" s="10" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A42" s="7" t="s">
         <v>77</v>
       </c>
@@ -2117,7 +2645,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A43" s="1" t="s">
         <v>79</v>
       </c>
@@ -2130,8 +2658,14 @@
       <c r="D43" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="E43" s="10" t="s">
+        <v>217</v>
+      </c>
+      <c r="F43" s="11" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A44" s="1" t="s">
         <v>82</v>
       </c>
@@ -2144,9 +2678,17 @@
       <c r="D44" t="s">
         <v>81</v>
       </c>
-      <c r="F44" s="2"/>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="E44" s="11" t="s">
+        <v>219</v>
+      </c>
+      <c r="F44" s="11" t="s">
+        <v>220</v>
+      </c>
+      <c r="G44" s="10" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A45" s="1" t="s">
         <v>81</v>
       </c>
@@ -2166,7 +2708,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="46" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A46" s="7" t="s">
         <v>78</v>
       </c>
@@ -2180,7 +2722,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="47" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A47" s="1" t="s">
         <v>83</v>
       </c>
@@ -2194,7 +2736,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="48" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A48" s="1" t="s">
         <v>84</v>
       </c>
@@ -2208,7 +2750,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A49" s="7" t="s">
         <v>87</v>
       </c>
@@ -2222,7 +2764,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A50" s="1" t="s">
         <v>86</v>
       </c>
@@ -2233,7 +2775,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A51" s="7" t="s">
         <v>89</v>
       </c>
@@ -2247,7 +2789,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A52" s="1" t="s">
         <v>52</v>
       </c>
@@ -2261,7 +2803,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A53" s="1" t="s">
         <v>90</v>
       </c>
@@ -2275,7 +2817,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A54" s="7" t="s">
         <v>88</v>
       </c>
@@ -2285,8 +2827,17 @@
       <c r="C54" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="D54" s="10" t="s">
+        <v>222</v>
+      </c>
+      <c r="E54" s="11" t="s">
+        <v>223</v>
+      </c>
+      <c r="F54" s="10" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A55" s="1" t="s">
         <v>95</v>
       </c>
@@ -2294,7 +2845,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="56" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A56" s="7" t="s">
         <v>53</v>
       </c>
@@ -2308,7 +2859,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="57" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A57" s="7" t="s">
         <v>56</v>
       </c>
@@ -2318,8 +2869,20 @@
       <c r="C57" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="D57" s="10" t="s">
+        <v>169</v>
+      </c>
+      <c r="E57" s="11" t="s">
+        <v>227</v>
+      </c>
+      <c r="F57" s="11" t="s">
+        <v>228</v>
+      </c>
+      <c r="G57" s="11" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A58" s="7" t="s">
         <v>51</v>
       </c>
@@ -2335,8 +2898,17 @@
       <c r="E58" s="2" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F58" s="10" t="s">
+        <v>224</v>
+      </c>
+      <c r="G58" s="10" t="s">
+        <v>225</v>
+      </c>
+      <c r="H58" s="10" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A59" s="1" t="s">
         <v>100</v>
       </c>
@@ -2352,8 +2924,11 @@
       <c r="E59" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F59" s="10" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A60" s="7" t="s">
         <v>101</v>
       </c>
@@ -2367,7 +2942,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="61" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A61" s="1" t="s">
         <v>102</v>
       </c>
@@ -2378,7 +2953,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="62" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A62" s="7" t="s">
         <v>106</v>
       </c>
@@ -2389,7 +2964,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="63" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A63" s="1" t="s">
         <v>108</v>
       </c>
@@ -2400,7 +2975,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="64" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A64" s="1" t="s">
         <v>109</v>
       </c>
@@ -2411,7 +2986,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="65" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A65" s="7" t="s">
         <v>114</v>
       </c>
@@ -2422,7 +2997,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="66" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A66" s="1" t="s">
         <v>115</v>
       </c>
@@ -2433,7 +3008,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="67" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A67" s="7" t="s">
         <v>116</v>
       </c>
@@ -2444,7 +3019,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="68" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A68" s="1" t="s">
         <v>117</v>
       </c>
@@ -2455,7 +3030,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="69" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A69" s="1" t="s">
         <v>118</v>
       </c>
@@ -2466,7 +3041,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="70" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A70" s="7" t="s">
         <v>0</v>
       </c>
@@ -2476,8 +3051,20 @@
       <c r="C70" s="2" t="s">
         <v>120</v>
       </c>
-    </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="D70" s="10" t="s">
+        <v>231</v>
+      </c>
+      <c r="E70" s="11" t="s">
+        <v>232</v>
+      </c>
+      <c r="F70" s="10" t="s">
+        <v>233</v>
+      </c>
+      <c r="G70" s="10" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A71" s="1" t="s">
         <v>119</v>
       </c>
@@ -2491,7 +3078,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="72" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A72" s="7" t="s">
         <v>125</v>
       </c>
@@ -2508,7 +3095,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="73" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A73" s="8" t="s">
         <v>122</v>
       </c>
@@ -2522,7 +3109,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="74" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A74" s="8" t="s">
         <v>123</v>
       </c>
@@ -2536,7 +3123,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="75" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A75" s="1" t="s">
         <v>128</v>
       </c>
@@ -2547,7 +3134,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="76" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A76" s="7" t="s">
         <v>124</v>
       </c>
@@ -2561,7 +3148,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="77" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A77" s="8" t="s">
         <v>131</v>
       </c>
@@ -2572,7 +3159,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="78" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A78" s="1" t="s">
         <v>129</v>
       </c>
@@ -2586,7 +3173,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="79" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A79" s="1" t="s">
         <v>130</v>
       </c>
@@ -2597,7 +3184,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="80" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A80" s="7" t="s">
         <v>1</v>
       </c>
@@ -2611,7 +3198,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A81" s="1" t="s">
         <v>135</v>
       </c>
@@ -2622,7 +3209,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A82" s="1" t="s">
         <v>136</v>
       </c>
@@ -2633,7 +3220,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A83" s="1" t="s">
         <v>138</v>
       </c>
@@ -2641,7 +3228,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A84" s="7" t="s">
         <v>148</v>
       </c>
@@ -2651,8 +3238,28 @@
       <c r="C84" s="2" t="s">
         <v>140</v>
       </c>
-    </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="D84" s="10" t="s">
+        <v>236</v>
+      </c>
+      <c r="E84" s="11" t="s">
+        <v>237</v>
+      </c>
+      <c r="F84" s="11" t="s">
+        <v>235</v>
+      </c>
+      <c r="G84" s="11" t="s">
+        <v>240</v>
+      </c>
+      <c r="H84" s="11" t="s">
+        <v>241</v>
+      </c>
+      <c r="I84" s="11" t="s">
+        <v>242</v>
+      </c>
+      <c r="J84" s="11"/>
+      <c r="K84" s="11"/>
+    </row>
+    <row r="85" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A85" s="1" t="s">
         <v>139</v>
       </c>
@@ -2663,7 +3270,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A86" s="7" t="s">
         <v>141</v>
       </c>
@@ -2671,7 +3278,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A87" s="1" t="s">
         <v>142</v>
       </c>
@@ -2682,15 +3289,25 @@
         <v>141</v>
       </c>
     </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A88" s="7" t="s">
         <v>144</v>
       </c>
       <c r="B88" t="s">
         <v>143</v>
       </c>
-    </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="C88" s="10" t="s">
+        <v>247</v>
+      </c>
+      <c r="D88" s="11" t="s">
+        <v>248</v>
+      </c>
+      <c r="E88" s="11" t="s">
+        <v>249</v>
+      </c>
+      <c r="F88" s="10"/>
+    </row>
+    <row r="89" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A89" s="1" t="s">
         <v>143</v>
       </c>
@@ -2703,122 +3320,165 @@
       <c r="D89" s="5" t="s">
         <v>147</v>
       </c>
-    </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A90" s="9" t="s">
+      <c r="E89" s="11" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="90" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A90" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="B90" s="11" t="s">
+        <v>186</v>
+      </c>
+      <c r="C90" s="10" t="s">
+        <v>188</v>
+      </c>
+      <c r="D90" s="11" t="s">
+        <v>185</v>
+      </c>
+      <c r="E90" s="11" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="91" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A91" s="12" t="s">
+        <v>243</v>
+      </c>
+      <c r="B91" s="10" t="s">
+        <v>246</v>
+      </c>
+      <c r="C91" s="11" t="s">
+        <v>239</v>
+      </c>
+      <c r="D91" s="10" t="s">
+        <v>237</v>
+      </c>
+      <c r="E91" s="11" t="s">
+        <v>238</v>
+      </c>
+      <c r="F91" s="11" t="s">
+        <v>244</v>
+      </c>
+      <c r="G91" s="11" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="92" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A92" s="9" t="s">
         <v>150</v>
       </c>
-      <c r="B90" s="2"/>
-      <c r="C90" s="5"/>
-      <c r="D90" s="5"/>
-    </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A91" s="9" t="s">
+      <c r="B92" s="2"/>
+      <c r="C92" s="5"/>
+      <c r="D92" s="5"/>
+    </row>
+    <row r="93" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A93" s="9" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A92" s="9" t="s">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A94" s="9" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A93" s="9" t="s">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A95" s="9" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A94" s="9" t="s">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A96" s="9" t="s">
         <v>55</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A95" s="9" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A96" s="9" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="97" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A97" s="9" t="s">
-        <v>68</v>
+        <v>32</v>
       </c>
     </row>
     <row r="98" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A98" s="9" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="99" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A99" s="9" t="s">
-        <v>92</v>
+        <v>68</v>
       </c>
     </row>
     <row r="100" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A100" s="9" t="s">
-        <v>85</v>
+        <v>66</v>
       </c>
     </row>
     <row r="101" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A101" s="9" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
     </row>
     <row r="102" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A102" s="9" t="s">
-        <v>99</v>
+        <v>85</v>
       </c>
     </row>
     <row r="103" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A103" s="9" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
     </row>
     <row r="104" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A104" s="9" t="s">
-        <v>120</v>
+        <v>99</v>
       </c>
     </row>
     <row r="105" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A105" s="9" t="s">
-        <v>127</v>
+        <v>103</v>
       </c>
     </row>
     <row r="106" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A106" s="9" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
     </row>
     <row r="107" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A107" s="9" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
     </row>
     <row r="108" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A108" s="9" t="s">
-        <v>137</v>
+        <v>126</v>
       </c>
     </row>
     <row r="109" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A109" s="9" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
     </row>
     <row r="110" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A110" s="9" t="s">
-        <v>145</v>
+        <v>137</v>
       </c>
     </row>
     <row r="111" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A111" s="9" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
     </row>
     <row r="112" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A112" s="9" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="113" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A113" s="9" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="114" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A114" s="9" t="s">
         <v>147</v>
       </c>
     </row>

--- a/extra/word_vector/word_vector_topic_v2.xlsx
+++ b/extra/word_vector/word_vector_topic_v2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tesum\workspace\GYH\extra\word_vector\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B72F32F4-B2A6-46E7-AF51-C82C75B6B252}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B836395-023E-4B39-9E02-3B04C5E49321}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-23148" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{DDDD6021-F3D3-418B-97EC-54D3336C6369}"/>
+    <workbookView xWindow="1848" yWindow="1848" windowWidth="17280" windowHeight="8880" xr2:uid="{DDDD6021-F3D3-418B-97EC-54D3336C6369}"/>
   </bookViews>
   <sheets>
     <sheet name="Topic_name" sheetId="1" r:id="rId1"/>
@@ -1235,10 +1235,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>ポケモン</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>スプラトゥーン</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -1298,12 +1294,16 @@
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>ポケモン</t>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="14" x14ac:knownFonts="1">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1417,6 +1417,14 @@
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="4"/>
+      <name val="游ゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -1464,7 +1472,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1511,6 +1519,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1829,8 +1840,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{11C86C65-94A2-4A64-91A0-FA283439FFA8}">
   <dimension ref="A1:XFA208"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A78" zoomScale="99" workbookViewId="0">
-      <selection activeCell="D92" sqref="D92"/>
+    <sheetView tabSelected="1" topLeftCell="A187" zoomScale="99" workbookViewId="0">
+      <selection activeCell="A195" sqref="A195"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -1916,7 +1927,7 @@
         <v>151</v>
       </c>
       <c r="J3" s="6" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.45">
@@ -2116,7 +2127,7 @@
         <v>20</v>
       </c>
       <c r="E14" s="6" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="F14" s="6" t="s">
         <v>162</v>
@@ -3240,10 +3251,10 @@
         <v>137</v>
       </c>
       <c r="E80" s="6" t="s">
+        <v>243</v>
+      </c>
+      <c r="F80" s="7" t="s">
         <v>244</v>
-      </c>
-      <c r="F80" s="7" t="s">
-        <v>245</v>
       </c>
     </row>
     <row r="81" spans="1:11" x14ac:dyDescent="0.45">
@@ -3260,10 +3271,10 @@
         <v>137</v>
       </c>
       <c r="E81" s="6" t="s">
+        <v>243</v>
+      </c>
+      <c r="F81" s="7" t="s">
         <v>244</v>
-      </c>
-      <c r="F81" s="7" t="s">
-        <v>245</v>
       </c>
     </row>
     <row r="82" spans="1:11" x14ac:dyDescent="0.45">
@@ -3280,10 +3291,10 @@
         <v>137</v>
       </c>
       <c r="E82" s="6" t="s">
+        <v>243</v>
+      </c>
+      <c r="F82" s="7" t="s">
         <v>244</v>
-      </c>
-      <c r="F82" s="7" t="s">
-        <v>245</v>
       </c>
     </row>
     <row r="83" spans="1:11" x14ac:dyDescent="0.45">
@@ -3297,10 +3308,10 @@
         <v>137</v>
       </c>
       <c r="D83" s="6" t="s">
+        <v>243</v>
+      </c>
+      <c r="E83" s="7" t="s">
         <v>244</v>
-      </c>
-      <c r="E83" s="7" t="s">
-        <v>245</v>
       </c>
     </row>
     <row r="84" spans="1:11" x14ac:dyDescent="0.45">
@@ -3323,7 +3334,7 @@
         <v>230</v>
       </c>
       <c r="G84" s="7" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="H84" s="7" t="s">
         <v>231</v>
@@ -3373,26 +3384,26 @@
       <c r="B88" t="s">
         <v>143</v>
       </c>
-      <c r="C88" s="6" t="s">
+      <c r="C88" s="16" t="s">
+        <v>247</v>
+      </c>
+      <c r="D88" s="7" t="s">
         <v>235</v>
       </c>
-      <c r="D88" s="7" t="s">
+      <c r="E88" s="6" t="s">
+        <v>238</v>
+      </c>
+      <c r="F88" s="6" t="s">
+        <v>239</v>
+      </c>
+      <c r="G88" s="6" t="s">
+        <v>240</v>
+      </c>
+      <c r="H88" s="6" t="s">
+        <v>241</v>
+      </c>
+      <c r="I88" s="6" t="s">
         <v>236</v>
-      </c>
-      <c r="E88" s="6" t="s">
-        <v>239</v>
-      </c>
-      <c r="F88" s="6" t="s">
-        <v>240</v>
-      </c>
-      <c r="G88" s="6" t="s">
-        <v>241</v>
-      </c>
-      <c r="H88" s="6" t="s">
-        <v>242</v>
-      </c>
-      <c r="I88" s="6" t="s">
-        <v>237</v>
       </c>
     </row>
     <row r="89" spans="1:11" x14ac:dyDescent="0.45">
@@ -3438,7 +3449,7 @@
         <v>228</v>
       </c>
       <c r="D91" s="7" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="E91" s="6" t="s">
         <v>234</v>
@@ -3595,7 +3606,7 @@
     </row>
     <row r="121" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A121" s="14" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="122" spans="1:1" x14ac:dyDescent="0.45">
@@ -16230,7 +16241,7 @@
     </row>
     <row r="190" spans="1:1021 1025:2045 2049:3069 3073:4093 4097:5117 5121:6141 6145:7165 7169:8189 8193:9213 9217:10237 10241:11261 11265:12285 12289:13309 13313:14333 14337:15357 15361:16381" x14ac:dyDescent="0.45">
       <c r="A190" s="15" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="191" spans="1:1021 1025:2045 2049:3069 3073:4093 4097:5117 5121:6141 6145:7165 7169:8189 8193:9213 9217:10237 10241:11261 11265:12285 12289:13309 13313:14333 14337:15357 15361:16381" x14ac:dyDescent="0.45">
@@ -16249,38 +16260,38 @@
       </c>
     </row>
     <row r="194" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A194" s="14" t="s">
-        <v>235</v>
+      <c r="A194" s="15" t="s">
+        <v>247</v>
       </c>
     </row>
     <row r="195" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A195" s="15" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="196" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A196" s="14" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="197" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A197" s="14" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="198" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A198" s="14" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="199" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A199" s="14" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="200" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A200" s="14" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="201" spans="1:2" x14ac:dyDescent="0.45">
@@ -16311,7 +16322,7 @@
     </row>
     <row r="206" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A206" s="15" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="207" spans="1:2" x14ac:dyDescent="0.45">
@@ -16321,7 +16332,7 @@
     </row>
     <row r="208" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A208" s="14" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
   </sheetData>
